--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,5 +1,146 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangkun/Documents/github/cdn_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0258E987-F650-4C43-95D0-96265742B81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sample.com/test.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -286,9 +427,56 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>